--- a/08_Protect_Mode/08 段权限检查.xlsx
+++ b/08_Protect_Mode/08 段权限检查.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3872E2-126F-4FD2-A4C2-2F577E9E60AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E0F76-C27D-4518-AD74-A99097D66DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、cpu分级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -655,6 +651,10 @@
       </rPr>
       <t>、总结：</t>
     </r>
+  </si>
+  <si>
+    <t>1、cpu分级(当前的级别主要查看cs、ss对应 段描述符中DPL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
   <dimension ref="B2:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="3" spans="2:19" ht="15.6" x14ac:dyDescent="0.25">
       <c r="N3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -1369,11 +1369,11 @@
     </row>
     <row r="4" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
       <c r="N4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="5" spans="2:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="N5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="6" spans="2:19" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="7" spans="2:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1417,102 +1417,102 @@
     </row>
     <row r="8" spans="2:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="3:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="3:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="3:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C35" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="3:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="11"/>
     </row>
